--- a/VISTA/bin/Debug/ReporteVuelos.xlsx
+++ b/VISTA/bin/Debug/ReporteVuelos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>ID Vuelo</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>LV-LLE</t>
+  </si>
+  <si>
+    <t>LV-FPF</t>
+  </si>
+  <si>
+    <t>55700,00</t>
   </si>
 </sst>
 </file>
@@ -189,7 +195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -755,6 +761,41 @@
         <v>28</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>19</v>
+      </c>
+      <c r="B17" s="0">
+        <v>45104</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="0">
+        <v>2323432</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
